--- a/with logs for unschedule with saturday sunday/excel_schedules/section_3D_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_3D_genetic_schedule.xlsx
@@ -520,9 +520,9 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SE 429 - Seismology
+          <t>CS 427 - Climate Science
 3D
-Room 12</t>
+Room 267</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,112 @@
         </is>
       </c>
       <c r="B3" s="2" t="n"/>
-      <c r="E3" s="2" t="inlineStr">
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>AS 430 - Astrophysics
+3D
+Room 225</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>AC 428 - Advanced Calculus
+3D
+Room 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>QP 426 - Quantum Physics
 3D
@@ -541,136 +646,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>MB 425 - Molecular Biology
-3D
-Room 132</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>AS 430 - Astrophysics
-3D
-Room 225</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>MB 425 - Molecular Biology
-3D
-Room 10</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>ACH 424 - Advanced Chemistry
-3D
-Room 9</t>
-        </is>
-      </c>
+      <c r="B16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -679,7 +661,13 @@
         </is>
       </c>
       <c r="B17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>GN 431 - Genetics
+3D
+Room 13</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -688,7 +676,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -696,7 +684,8 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -712,36 +701,6 @@
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>SE 429 - Seismology
-3D
-Room 224</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>GN 431 - Genetics
 3D
@@ -749,6 +708,30 @@
         </is>
       </c>
     </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n"/>
+    </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
@@ -773,19 +756,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="9">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B2:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
